--- a/测试问题/问题单-2017-01-27.xlsx
+++ b/测试问题/问题单-2017-01-27.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>周源</t>
-  </si>
-  <si>
-    <t>门店和充气站需要增加出库的按钮！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>周源</t>
@@ -94,51 +90,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>配送端小程序-订单跟踪
+显示异常。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送端小程序
+我要催单隐藏掉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户端
+订气界面选择商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户端
+商品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户端
+我的订单后增加状态显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户端
+用户确认收气按键取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户端
+评价按键功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>配送端小程序-点击配送成功之前
 选择扫码支付的时候要修改订单的支付方式为“微信支付”。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>配送端小程序-订单跟踪
-显示异常。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送端小程序
-我要催单隐藏掉。</t>
+    <t>门店和充气站需要增加出库的按钮！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋婧芝、王远斌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>钢检员账号下问题
-1、批量增加钢瓶（excel导入）
+1、批量增加钢瓶（excel导入）(以后讨论)
 2、生产日期：可选时间
 3、上次钢检时间：可选时间
 4、下次钢检日期，自动输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信用户端
-订气界面选择商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信用户端
-商品列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信用户端
-我的订单后增加状态显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信用户端
-用户确认收气按键取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信用户端
-评价按键功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -600,22 +608,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -630,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -645,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -660,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -675,7 +685,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -690,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -705,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -720,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E10" s="6"/>
     </row>
@@ -735,7 +745,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -750,7 +760,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -765,13 +775,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -780,7 +790,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -795,7 +805,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -810,7 +820,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -825,7 +835,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -840,7 +850,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
